--- a/Code/Results/Cases/Case_2_166/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_166/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9882417587909331</v>
+        <v>1.018666565760348</v>
       </c>
       <c r="D2">
-        <v>1.008190399408319</v>
+        <v>1.024073826565401</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9966578905108171</v>
+        <v>1.029921335933025</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038065490323838</v>
+        <v>1.028572256807639</v>
       </c>
       <c r="J2">
-        <v>1.010779936100438</v>
+        <v>1.023873704226621</v>
       </c>
       <c r="K2">
-        <v>1.019536796184192</v>
+        <v>1.026903397120257</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.008163983437175</v>
+        <v>1.032733845174414</v>
       </c>
       <c r="N2">
-        <v>1.01221535954778</v>
+        <v>1.025327722326579</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9925880823233914</v>
+        <v>1.019574927750655</v>
       </c>
       <c r="D3">
-        <v>1.011174112227698</v>
+        <v>1.024712483340146</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.001736444782007</v>
+        <v>1.031052197450709</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039005902747267</v>
+        <v>1.028706233435404</v>
       </c>
       <c r="J3">
-        <v>1.013282863506823</v>
+        <v>1.024418702258435</v>
       </c>
       <c r="K3">
-        <v>1.021665987079831</v>
+        <v>1.02734952631437</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.012347155583926</v>
+        <v>1.033672085886387</v>
       </c>
       <c r="N3">
-        <v>1.014721841398171</v>
+        <v>1.025873494318109</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9953416500500057</v>
+        <v>1.020162947137686</v>
       </c>
       <c r="D4">
-        <v>1.01306660763334</v>
+        <v>1.025125777582575</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.004955115173587</v>
+        <v>1.031784383025544</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039590727153564</v>
+        <v>1.028791592708657</v>
       </c>
       <c r="J4">
-        <v>1.014865272217958</v>
+        <v>1.024771002658053</v>
       </c>
       <c r="K4">
-        <v>1.023009847233907</v>
+        <v>1.027637556739405</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.014994101949341</v>
+        <v>1.034279055542677</v>
       </c>
       <c r="N4">
-        <v>1.016306497311181</v>
+        <v>1.026226295024704</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9964856746527153</v>
+        <v>1.020410209189591</v>
       </c>
       <c r="D5">
-        <v>1.013853351247129</v>
+        <v>1.025299534933467</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.006292700967927</v>
+        <v>1.032092299624961</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039831034149067</v>
+        <v>1.028827158290757</v>
       </c>
       <c r="J5">
-        <v>1.01552189657555</v>
+        <v>1.024919025266414</v>
       </c>
       <c r="K5">
-        <v>1.023566923566743</v>
+        <v>1.027758489481111</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.016093057357569</v>
+        <v>1.034534193024732</v>
       </c>
       <c r="N5">
-        <v>1.016964054150677</v>
+        <v>1.026374527842147</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9966769794216861</v>
+        <v>1.020451728995915</v>
       </c>
       <c r="D6">
-        <v>1.013984937080463</v>
+        <v>1.025328710015874</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.006516393316864</v>
+        <v>1.032144006375417</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039871060396797</v>
+        <v>1.028833111162685</v>
       </c>
       <c r="J6">
-        <v>1.01563164890563</v>
+        <v>1.024943873938122</v>
       </c>
       <c r="K6">
-        <v>1.02366000324873</v>
+        <v>1.02777878549237</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.016276780568172</v>
+        <v>1.034577029813001</v>
       </c>
       <c r="N6">
-        <v>1.017073962341654</v>
+        <v>1.026399411801819</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.99535698926044</v>
+        <v>1.020166250835633</v>
       </c>
       <c r="D7">
-        <v>1.013077154603848</v>
+        <v>1.025128099305195</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.00497304834431</v>
+        <v>1.031788497006759</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039593959816653</v>
+        <v>1.028792069193497</v>
       </c>
       <c r="J7">
-        <v>1.014874079583383</v>
+        <v>1.024772980876272</v>
       </c>
       <c r="K7">
-        <v>1.023017321596914</v>
+        <v>1.027639173259693</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.01500883990065</v>
+        <v>1.0342824648305</v>
       </c>
       <c r="N7">
-        <v>1.016315317184075</v>
+        <v>1.02622827605222</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.989723102423</v>
+        <v>1.018973499040638</v>
       </c>
       <c r="D8">
-        <v>1.009206832129131</v>
+        <v>1.024289654443549</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9983885675907058</v>
+        <v>1.030303424144117</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038388283890132</v>
+        <v>1.028617810489123</v>
       </c>
       <c r="J8">
-        <v>1.011633674519765</v>
+        <v>1.024057960838395</v>
       </c>
       <c r="K8">
-        <v>1.02026351868934</v>
+        <v>1.027054301618854</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.009590411087566</v>
+        <v>1.033050955760219</v>
       </c>
       <c r="N8">
-        <v>1.013070310373587</v>
+        <v>1.025512240603876</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9793213200923032</v>
+        <v>1.016873654754303</v>
       </c>
       <c r="D9">
-        <v>1.00208140068075</v>
+        <v>1.022812574271612</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9862395480754198</v>
+        <v>1.027689932325439</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036076721525378</v>
+        <v>1.028300557813042</v>
       </c>
       <c r="J9">
-        <v>1.005626039463533</v>
+        <v>1.022795358019926</v>
       </c>
       <c r="K9">
-        <v>1.015140798633158</v>
+        <v>1.026018779895359</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9995598953484757</v>
+        <v>1.030879859065943</v>
       </c>
       <c r="N9">
-        <v>1.00705414378649</v>
+        <v>1.024247844744582</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9720323598465199</v>
+        <v>1.015475104874855</v>
       </c>
       <c r="D10">
-        <v>0.9971062105838098</v>
+        <v>1.021828175231312</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9777288378039494</v>
+        <v>1.025949894216574</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034401545710114</v>
+        <v>1.028082232679559</v>
       </c>
       <c r="J10">
-        <v>1.001401295593581</v>
+        <v>1.0219518866512</v>
       </c>
       <c r="K10">
-        <v>1.011527910599564</v>
+        <v>1.025325184151708</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9925121946181483</v>
+        <v>1.02943178917024</v>
       </c>
       <c r="N10">
-        <v>1.002823400295659</v>
+        <v>1.023403175549764</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9687834121954447</v>
+        <v>1.014869845405079</v>
       </c>
       <c r="D11">
-        <v>0.994893812239068</v>
+        <v>1.02140201118295</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9739352670746568</v>
+        <v>1.025196981959098</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033642309263387</v>
+        <v>1.027986082298906</v>
       </c>
       <c r="J11">
-        <v>0.9995150768352488</v>
+        <v>1.021586251155603</v>
       </c>
       <c r="K11">
-        <v>1.00991267053146</v>
+        <v>1.025024089164023</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9893660544230196</v>
+        <v>1.028804601612821</v>
       </c>
       <c r="N11">
-        <v>1.000934502890337</v>
+        <v>1.023037020809825</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9675618664705176</v>
+        <v>1.014645074079291</v>
       </c>
       <c r="D12">
-        <v>0.9940628615959014</v>
+        <v>1.021243729202546</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.972508883969185</v>
+        <v>1.024917397221548</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033355015557385</v>
+        <v>1.027950125643365</v>
       </c>
       <c r="J12">
-        <v>0.998805465957105</v>
+        <v>1.021450377387144</v>
       </c>
       <c r="K12">
-        <v>1.009304698669036</v>
+        <v>1.024912135144509</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9881824278023285</v>
+        <v>1.028571611693744</v>
       </c>
       <c r="N12">
-        <v>1.000223884283352</v>
+        <v>1.02290095408503</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9678245728274955</v>
+        <v>1.014693286064541</v>
       </c>
       <c r="D13">
-        <v>0.9942415255396242</v>
+        <v>1.021277680557051</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9728156469413285</v>
+        <v>1.02497736546002</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033416883152354</v>
+        <v>1.02795784941842</v>
       </c>
       <c r="J13">
-        <v>0.9989580939275313</v>
+        <v>1.021479525497386</v>
       </c>
       <c r="K13">
-        <v>1.00943547881551</v>
+        <v>1.024936154805252</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9884370128576409</v>
+        <v>1.028621589931469</v>
       </c>
       <c r="N13">
-        <v>1.000376729003004</v>
+        <v>1.022930143588931</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9686827444293051</v>
+        <v>1.0148512647341</v>
       </c>
       <c r="D14">
-        <v>0.9948253152508725</v>
+        <v>1.021388927245888</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.973817720405751</v>
+        <v>1.025173869757874</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033618670326494</v>
+        <v>1.027983115047547</v>
       </c>
       <c r="J14">
-        <v>0.9994566061356189</v>
+        <v>1.021575021017205</v>
       </c>
       <c r="K14">
-        <v>1.009862580770084</v>
+        <v>1.025014837329661</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9892685266535106</v>
+        <v>1.028785343093545</v>
       </c>
       <c r="N14">
-        <v>1.000875949155607</v>
+        <v>1.023025774723342</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9692095138063002</v>
+        <v>1.014948607117115</v>
       </c>
       <c r="D15">
-        <v>0.995183778983318</v>
+        <v>1.021457471936617</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9744328096907847</v>
+        <v>1.02529495319221</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033742292549751</v>
+        <v>1.027998649963413</v>
       </c>
       <c r="J15">
-        <v>0.9997625516109964</v>
+        <v>1.021633850966052</v>
       </c>
       <c r="K15">
-        <v>1.010124661044576</v>
+        <v>1.025063301155195</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9897788351205579</v>
+        <v>1.028886233572135</v>
       </c>
       <c r="N15">
-        <v>1.001182329108651</v>
+        <v>1.023084688217464</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9722459598606426</v>
+        <v>1.015515280787814</v>
       </c>
       <c r="D16">
-        <v>0.9972517792801238</v>
+        <v>1.021856460277478</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9779782376423358</v>
+        <v>1.025999873802948</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034451204121397</v>
+        <v>1.028088579888148</v>
       </c>
       <c r="J16">
-        <v>1.001525242555242</v>
+        <v>1.021976144159463</v>
       </c>
       <c r="K16">
-        <v>1.011634007388899</v>
+        <v>1.025345150814696</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9927189351444631</v>
+        <v>1.029473410098565</v>
       </c>
       <c r="N16">
-        <v>1.002947523276221</v>
+        <v>1.023427467506471</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9741252541157857</v>
+        <v>1.015870826828263</v>
       </c>
       <c r="D17">
-        <v>0.9985331249167816</v>
+        <v>1.022106759337229</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9801724934733296</v>
+        <v>1.026442195244144</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034886686584209</v>
+        <v>1.028144558670611</v>
       </c>
       <c r="J17">
-        <v>1.002615403774408</v>
+        <v>1.022190747180532</v>
       </c>
       <c r="K17">
-        <v>1.012566922743422</v>
+        <v>1.025521743802507</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9945373375214773</v>
+        <v>1.029841686628819</v>
       </c>
       <c r="N17">
-        <v>1.004039232649362</v>
+        <v>1.023642375288446</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9752125200373321</v>
+        <v>1.016078241830166</v>
       </c>
       <c r="D18">
-        <v>0.9992749366833998</v>
+        <v>1.022252762879354</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9814419804422783</v>
+        <v>1.026700245552877</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035137441344263</v>
+        <v>1.028177054378697</v>
       </c>
       <c r="J18">
-        <v>1.003245819981254</v>
+        <v>1.022315882195121</v>
       </c>
       <c r="K18">
-        <v>1.013106197412383</v>
+        <v>1.025624673791145</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9955889275687463</v>
+        <v>1.030056480295457</v>
       </c>
       <c r="N18">
-        <v>1.004670544119531</v>
+        <v>1.023767688009109</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.975581764352357</v>
+        <v>1.016148970226582</v>
       </c>
       <c r="D19">
-        <v>0.99952694240534</v>
+        <v>1.022302547690886</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9818731102668291</v>
+        <v>1.026788242810743</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035222395715844</v>
+        <v>1.028188108142593</v>
       </c>
       <c r="J19">
-        <v>1.003459862959335</v>
+        <v>1.022358543315934</v>
       </c>
       <c r="K19">
-        <v>1.013289259134953</v>
+        <v>1.025659757730929</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.995945980937051</v>
+        <v>1.030129716702665</v>
       </c>
       <c r="N19">
-        <v>1.004884891063192</v>
+        <v>1.023810409713607</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9739245492528099</v>
+        <v>1.015832676890624</v>
       </c>
       <c r="D20">
-        <v>0.9983962284146932</v>
+        <v>1.022079903745947</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9799381517712539</v>
+        <v>1.026394732992989</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034840301425958</v>
+        <v>1.02813856878611</v>
       </c>
       <c r="J20">
-        <v>1.002499007250658</v>
+        <v>1.02216772636723</v>
       </c>
       <c r="K20">
-        <v>1.012467336954583</v>
+        <v>1.025502804665138</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9943431823182809</v>
+        <v>1.029802175676428</v>
       </c>
       <c r="N20">
-        <v>1.003922670829197</v>
+        <v>1.023619321782948</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9684304479794942</v>
+        <v>1.014804742595943</v>
       </c>
       <c r="D21">
-        <v>0.9946536604657276</v>
+        <v>1.021356167463667</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9735231202340098</v>
+        <v>1.025116001921203</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033559396372476</v>
+        <v>1.02797568163018</v>
       </c>
       <c r="J21">
-        <v>0.9993100584513556</v>
+        <v>1.021546901630663</v>
       </c>
       <c r="K21">
-        <v>1.009737033766722</v>
+        <v>1.024991670426354</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9890240878342412</v>
+        <v>1.028737122545497</v>
       </c>
       <c r="N21">
-        <v>1.000729193356823</v>
+        <v>1.022997615404045</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9648903539704402</v>
+        <v>1.01415872326585</v>
       </c>
       <c r="D22">
-        <v>0.9922472798500014</v>
+        <v>1.020901209200442</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9693891935770438</v>
+        <v>1.024312478062143</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032723390193338</v>
+        <v>1.027871867352052</v>
       </c>
       <c r="J22">
-        <v>0.9972528115458191</v>
+        <v>1.021156214967725</v>
       </c>
       <c r="K22">
-        <v>1.007973900171454</v>
+        <v>1.024669641229399</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9855924640833328</v>
+        <v>1.028067339453981</v>
       </c>
       <c r="N22">
-        <v>0.9986690249247107</v>
+        <v>1.022606373921234</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9667754354727924</v>
+        <v>1.014501163226148</v>
       </c>
       <c r="D23">
-        <v>0.9935281523906878</v>
+        <v>1.021142382867521</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9715905510563834</v>
+        <v>1.024738397203886</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033169545514241</v>
+        <v>1.027927033902448</v>
       </c>
       <c r="J23">
-        <v>0.9983485033645396</v>
+        <v>1.021363358270654</v>
       </c>
       <c r="K23">
-        <v>1.008913104847784</v>
+        <v>1.024840417192564</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.98742019886833</v>
+        <v>1.028422417573243</v>
       </c>
       <c r="N23">
-        <v>0.999766272751491</v>
+        <v>1.022813811391413</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9740152665694992</v>
+        <v>1.015849915109474</v>
       </c>
       <c r="D24">
-        <v>0.9984581032495686</v>
+        <v>1.022092038606022</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9800440727198609</v>
+        <v>1.026416178981395</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03486127092668</v>
+        <v>1.028141275838406</v>
       </c>
       <c r="J24">
-        <v>1.002551618659274</v>
+        <v>1.022178128603291</v>
       </c>
       <c r="K24">
-        <v>1.012512350537348</v>
+        <v>1.025511362673904</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9944309406144911</v>
+        <v>1.02982002902378</v>
       </c>
       <c r="N24">
-        <v>1.003975356952048</v>
+        <v>1.023629738791378</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9820701406998755</v>
+        <v>1.017416280774737</v>
       </c>
       <c r="D25">
-        <v>1.003961624380254</v>
+        <v>1.023194383745524</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.989449446990853</v>
+        <v>1.028365179487089</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036697305996208</v>
+        <v>1.028383779765659</v>
       </c>
       <c r="J25">
-        <v>1.007216358280558</v>
+        <v>1.023122080263795</v>
       </c>
       <c r="K25">
-        <v>1.01649875095499</v>
+        <v>1.026287063108452</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.002213784890082</v>
+        <v>1.03144125909123</v>
       </c>
       <c r="N25">
-        <v>1.008646721038648</v>
+        <v>1.024575030971513</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_166/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_166/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018666565760348</v>
+        <v>0.9882417587909318</v>
       </c>
       <c r="D2">
-        <v>1.024073826565401</v>
+        <v>1.008190399408317</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.029921335933025</v>
+        <v>0.9966578905108158</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028572256807639</v>
+        <v>1.038065490323837</v>
       </c>
       <c r="J2">
-        <v>1.023873704226621</v>
+        <v>1.010779936100437</v>
       </c>
       <c r="K2">
-        <v>1.026903397120257</v>
+        <v>1.01953679618419</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.032733845174414</v>
+        <v>1.008163983437174</v>
       </c>
       <c r="N2">
-        <v>1.025327722326579</v>
+        <v>1.012215359547779</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019574927750655</v>
+        <v>0.99258808232339</v>
       </c>
       <c r="D3">
-        <v>1.024712483340146</v>
+        <v>1.011174112227697</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.031052197450709</v>
+        <v>1.001736444782006</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028706233435404</v>
+        <v>1.039005902747266</v>
       </c>
       <c r="J3">
-        <v>1.024418702258435</v>
+        <v>1.013282863506822</v>
       </c>
       <c r="K3">
-        <v>1.02734952631437</v>
+        <v>1.02166598707983</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.033672085886387</v>
+        <v>1.012347155583925</v>
       </c>
       <c r="N3">
-        <v>1.025873494318109</v>
+        <v>1.01472184139817</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020162947137686</v>
+        <v>0.9953416500500056</v>
       </c>
       <c r="D4">
-        <v>1.025125777582575</v>
+        <v>1.01306660763334</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.031784383025544</v>
+        <v>1.004955115173587</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028791592708657</v>
+        <v>1.039590727153564</v>
       </c>
       <c r="J4">
-        <v>1.024771002658053</v>
+        <v>1.014865272217958</v>
       </c>
       <c r="K4">
-        <v>1.027637556739405</v>
+        <v>1.023009847233907</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.034279055542677</v>
+        <v>1.014994101949341</v>
       </c>
       <c r="N4">
-        <v>1.026226295024704</v>
+        <v>1.016306497311181</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020410209189591</v>
+        <v>0.9964856746527154</v>
       </c>
       <c r="D5">
-        <v>1.025299534933467</v>
+        <v>1.013853351247129</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.032092299624961</v>
+        <v>1.006292700967927</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028827158290757</v>
+        <v>1.039831034149067</v>
       </c>
       <c r="J5">
-        <v>1.024919025266414</v>
+        <v>1.01552189657555</v>
       </c>
       <c r="K5">
-        <v>1.027758489481111</v>
+        <v>1.023566923566743</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.034534193024732</v>
+        <v>1.016093057357569</v>
       </c>
       <c r="N5">
-        <v>1.026374527842147</v>
+        <v>1.016964054150677</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020451728995915</v>
+        <v>0.9966769794216862</v>
       </c>
       <c r="D6">
-        <v>1.025328710015874</v>
+        <v>1.013984937080464</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.032144006375417</v>
+        <v>1.006516393316864</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028833111162685</v>
+        <v>1.039871060396797</v>
       </c>
       <c r="J6">
-        <v>1.024943873938122</v>
+        <v>1.01563164890563</v>
       </c>
       <c r="K6">
-        <v>1.02777878549237</v>
+        <v>1.02366000324873</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.034577029813001</v>
+        <v>1.016276780568172</v>
       </c>
       <c r="N6">
-        <v>1.026399411801819</v>
+        <v>1.017073962341654</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020166250835633</v>
+        <v>0.9953569892604403</v>
       </c>
       <c r="D7">
-        <v>1.025128099305195</v>
+        <v>1.013077154603848</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.031788497006759</v>
+        <v>1.00497304834431</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028792069193497</v>
+        <v>1.039593959816654</v>
       </c>
       <c r="J7">
-        <v>1.024772980876272</v>
+        <v>1.014874079583383</v>
       </c>
       <c r="K7">
-        <v>1.027639173259693</v>
+        <v>1.023017321596914</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.0342824648305</v>
+        <v>1.015008839900651</v>
       </c>
       <c r="N7">
-        <v>1.02622827605222</v>
+        <v>1.016315317184076</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018973499040638</v>
+        <v>0.9897231024229995</v>
       </c>
       <c r="D8">
-        <v>1.024289654443549</v>
+        <v>1.009206832129131</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.030303424144117</v>
+        <v>0.9983885675907058</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028617810489123</v>
+        <v>1.038388283890132</v>
       </c>
       <c r="J8">
-        <v>1.024057960838395</v>
+        <v>1.011633674519764</v>
       </c>
       <c r="K8">
-        <v>1.027054301618854</v>
+        <v>1.02026351868934</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.033050955760219</v>
+        <v>1.009590411087566</v>
       </c>
       <c r="N8">
-        <v>1.025512240603876</v>
+        <v>1.013070310373587</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016873654754303</v>
+        <v>0.9793213200923041</v>
       </c>
       <c r="D9">
-        <v>1.022812574271612</v>
+        <v>1.002081400680751</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.027689932325439</v>
+        <v>0.9862395480754207</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028300557813042</v>
+        <v>1.036076721525378</v>
       </c>
       <c r="J9">
-        <v>1.022795358019926</v>
+        <v>1.005626039463533</v>
       </c>
       <c r="K9">
-        <v>1.026018779895359</v>
+        <v>1.015140798633159</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.030879859065943</v>
+        <v>0.9995598953484766</v>
       </c>
       <c r="N9">
-        <v>1.024247844744582</v>
+        <v>1.007054143786491</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015475104874855</v>
+        <v>0.9720323598465195</v>
       </c>
       <c r="D10">
-        <v>1.021828175231312</v>
+        <v>0.9971062105838094</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.025949894216574</v>
+        <v>0.977728837803949</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028082232679559</v>
+        <v>1.034401545710114</v>
       </c>
       <c r="J10">
-        <v>1.0219518866512</v>
+        <v>1.001401295593581</v>
       </c>
       <c r="K10">
-        <v>1.025325184151708</v>
+        <v>1.011527910599564</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.02943178917024</v>
+        <v>0.9925121946181478</v>
       </c>
       <c r="N10">
-        <v>1.023403175549764</v>
+        <v>1.002823400295658</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014869845405079</v>
+        <v>0.9687834121954445</v>
       </c>
       <c r="D11">
-        <v>1.02140201118295</v>
+        <v>0.994893812239068</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.025196981959098</v>
+        <v>0.9739352670746569</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027986082298906</v>
+        <v>1.033642309263387</v>
       </c>
       <c r="J11">
-        <v>1.021586251155603</v>
+        <v>0.9995150768352487</v>
       </c>
       <c r="K11">
-        <v>1.025024089164023</v>
+        <v>1.00991267053146</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.028804601612821</v>
+        <v>0.9893660544230199</v>
       </c>
       <c r="N11">
-        <v>1.023037020809825</v>
+        <v>1.000934502890336</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014645074079291</v>
+        <v>0.9675618664705178</v>
       </c>
       <c r="D12">
-        <v>1.021243729202546</v>
+        <v>0.9940628615959016</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.024917397221548</v>
+        <v>0.9725088839691853</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027950125643365</v>
+        <v>1.033355015557385</v>
       </c>
       <c r="J12">
-        <v>1.021450377387144</v>
+        <v>0.9988054659571052</v>
       </c>
       <c r="K12">
-        <v>1.024912135144509</v>
+        <v>1.009304698669036</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.028571611693744</v>
+        <v>0.9881824278023289</v>
       </c>
       <c r="N12">
-        <v>1.02290095408503</v>
+        <v>1.000223884283353</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.014693286064541</v>
+        <v>0.9678245728274958</v>
       </c>
       <c r="D13">
-        <v>1.021277680557051</v>
+        <v>0.9942415255396247</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.02497736546002</v>
+        <v>0.972815646941329</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02795784941842</v>
+        <v>1.033416883152355</v>
       </c>
       <c r="J13">
-        <v>1.021479525497386</v>
+        <v>0.9989580939275318</v>
       </c>
       <c r="K13">
-        <v>1.024936154805252</v>
+        <v>1.00943547881551</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.028621589931469</v>
+        <v>0.9884370128576415</v>
       </c>
       <c r="N13">
-        <v>1.022930143588931</v>
+        <v>1.000376729003004</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.0148512647341</v>
+        <v>0.968682744429305</v>
       </c>
       <c r="D14">
-        <v>1.021388927245888</v>
+        <v>0.9948253152508727</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.025173869757874</v>
+        <v>0.973817720405751</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027983115047547</v>
+        <v>1.033618670326495</v>
       </c>
       <c r="J14">
-        <v>1.021575021017205</v>
+        <v>0.999456606135619</v>
       </c>
       <c r="K14">
-        <v>1.025014837329661</v>
+        <v>1.009862580770084</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.028785343093545</v>
+        <v>0.9892685266535107</v>
       </c>
       <c r="N14">
-        <v>1.023025774723342</v>
+        <v>1.000875949155607</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014948607117115</v>
+        <v>0.9692095138063009</v>
       </c>
       <c r="D15">
-        <v>1.021457471936617</v>
+        <v>0.9951837789833183</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.02529495319221</v>
+        <v>0.9744328096907852</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027998649963413</v>
+        <v>1.033742292549751</v>
       </c>
       <c r="J15">
-        <v>1.021633850966052</v>
+        <v>0.9997625516109968</v>
       </c>
       <c r="K15">
-        <v>1.025063301155195</v>
+        <v>1.010124661044576</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.028886233572135</v>
+        <v>0.9897788351205583</v>
       </c>
       <c r="N15">
-        <v>1.023084688217464</v>
+        <v>1.001182329108652</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015515280787814</v>
+        <v>0.9722459598606417</v>
       </c>
       <c r="D16">
-        <v>1.021856460277478</v>
+        <v>0.9972517792801225</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.025999873802948</v>
+        <v>0.9779782376423352</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028088579888148</v>
+        <v>1.034451204121396</v>
       </c>
       <c r="J16">
-        <v>1.021976144159463</v>
+        <v>1.001525242555241</v>
       </c>
       <c r="K16">
-        <v>1.025345150814696</v>
+        <v>1.011634007388898</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.029473410098565</v>
+        <v>0.9927189351444623</v>
       </c>
       <c r="N16">
-        <v>1.023427467506471</v>
+        <v>1.00294752327622</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015870826828263</v>
+        <v>0.9741252541157854</v>
       </c>
       <c r="D17">
-        <v>1.022106759337229</v>
+        <v>0.9985331249167811</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.026442195244144</v>
+        <v>0.9801724934733291</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028144558670611</v>
+        <v>1.034886686584209</v>
       </c>
       <c r="J17">
-        <v>1.022190747180532</v>
+        <v>1.002615403774408</v>
       </c>
       <c r="K17">
-        <v>1.025521743802507</v>
+        <v>1.012566922743421</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.029841686628819</v>
+        <v>0.9945373375214768</v>
       </c>
       <c r="N17">
-        <v>1.023642375288446</v>
+        <v>1.004039232649362</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016078241830166</v>
+        <v>0.9752125200373319</v>
       </c>
       <c r="D18">
-        <v>1.022252762879354</v>
+        <v>0.9992749366834001</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.026700245552877</v>
+        <v>0.9814419804422783</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028177054378697</v>
+        <v>1.035137441344263</v>
       </c>
       <c r="J18">
-        <v>1.022315882195121</v>
+        <v>1.003245819981254</v>
       </c>
       <c r="K18">
-        <v>1.025624673791145</v>
+        <v>1.013106197412383</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.030056480295457</v>
+        <v>0.9955889275687462</v>
       </c>
       <c r="N18">
-        <v>1.023767688009109</v>
+        <v>1.004670544119531</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016148970226582</v>
+        <v>0.9755817643523582</v>
       </c>
       <c r="D19">
-        <v>1.022302547690886</v>
+        <v>0.9995269424053411</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.026788242810743</v>
+        <v>0.98187311026683</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028188108142593</v>
+        <v>1.035222395715844</v>
       </c>
       <c r="J19">
-        <v>1.022358543315934</v>
+        <v>1.003459862959336</v>
       </c>
       <c r="K19">
-        <v>1.025659757730929</v>
+        <v>1.013289259134954</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.030129716702665</v>
+        <v>0.9959459809370518</v>
       </c>
       <c r="N19">
-        <v>1.023810409713607</v>
+        <v>1.004884891063193</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015832676890624</v>
+        <v>0.97392454925281</v>
       </c>
       <c r="D20">
-        <v>1.022079903745947</v>
+        <v>0.9983962284146932</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.026394732992989</v>
+        <v>0.9799381517712539</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02813856878611</v>
+        <v>1.034840301425958</v>
       </c>
       <c r="J20">
-        <v>1.02216772636723</v>
+        <v>1.002499007250658</v>
       </c>
       <c r="K20">
-        <v>1.025502804665138</v>
+        <v>1.012467336954583</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.029802175676428</v>
+        <v>0.9943431823182809</v>
       </c>
       <c r="N20">
-        <v>1.023619321782948</v>
+        <v>1.003922670829197</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014804742595943</v>
+        <v>0.968430447979494</v>
       </c>
       <c r="D21">
-        <v>1.021356167463667</v>
+        <v>0.9946536604657271</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.025116001921203</v>
+        <v>0.9735231202340096</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02797568163018</v>
+        <v>1.033559396372476</v>
       </c>
       <c r="J21">
-        <v>1.021546901630663</v>
+        <v>0.9993100584513553</v>
       </c>
       <c r="K21">
-        <v>1.024991670426354</v>
+        <v>1.009737033766722</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.028737122545497</v>
+        <v>0.9890240878342411</v>
       </c>
       <c r="N21">
-        <v>1.022997615404045</v>
+        <v>1.000729193356822</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01415872326585</v>
+        <v>0.9648903539704403</v>
       </c>
       <c r="D22">
-        <v>1.020901209200442</v>
+        <v>0.9922472798500014</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.024312478062143</v>
+        <v>0.9693891935770441</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027871867352052</v>
+        <v>1.032723390193339</v>
       </c>
       <c r="J22">
-        <v>1.021156214967725</v>
+        <v>0.9972528115458195</v>
       </c>
       <c r="K22">
-        <v>1.024669641229399</v>
+        <v>1.007973900171455</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.028067339453981</v>
+        <v>0.9855924640833331</v>
       </c>
       <c r="N22">
-        <v>1.022606373921234</v>
+        <v>0.9986690249247108</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.014501163226148</v>
+        <v>0.9667754354727925</v>
       </c>
       <c r="D23">
-        <v>1.021142382867521</v>
+        <v>0.9935281523906878</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.024738397203886</v>
+        <v>0.9715905510563835</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027927033902448</v>
+        <v>1.033169545514241</v>
       </c>
       <c r="J23">
-        <v>1.021363358270654</v>
+        <v>0.9983485033645395</v>
       </c>
       <c r="K23">
-        <v>1.024840417192564</v>
+        <v>1.008913104847784</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.028422417573243</v>
+        <v>0.9874201988683301</v>
       </c>
       <c r="N23">
-        <v>1.022813811391413</v>
+        <v>0.9997662727514913</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015849915109474</v>
+        <v>0.9740152665694983</v>
       </c>
       <c r="D24">
-        <v>1.022092038606022</v>
+        <v>0.9984581032495677</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.026416178981395</v>
+        <v>0.9800440727198602</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028141275838406</v>
+        <v>1.034861270926679</v>
       </c>
       <c r="J24">
-        <v>1.022178128603291</v>
+        <v>1.002551618659273</v>
       </c>
       <c r="K24">
-        <v>1.025511362673904</v>
+        <v>1.012512350537347</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.02982002902378</v>
+        <v>0.9944309406144904</v>
       </c>
       <c r="N24">
-        <v>1.023629738791378</v>
+        <v>1.003975356952047</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017416280774737</v>
+        <v>0.9820701406998756</v>
       </c>
       <c r="D25">
-        <v>1.023194383745524</v>
+        <v>1.003961624380254</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.028365179487089</v>
+        <v>0.989449446990853</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028383779765659</v>
+        <v>1.036697305996209</v>
       </c>
       <c r="J25">
-        <v>1.023122080263795</v>
+        <v>1.007216358280558</v>
       </c>
       <c r="K25">
-        <v>1.026287063108452</v>
+        <v>1.01649875095499</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.03144125909123</v>
+        <v>1.002213784890082</v>
       </c>
       <c r="N25">
-        <v>1.024575030971513</v>
+        <v>1.008646721038648</v>
       </c>
     </row>
   </sheetData>
